--- a/data/case1/2/P_device_1.xlsx
+++ b/data/case1/2/P_device_1.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.067567370255805725</v>
+        <v>0.038589317575456111</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.067567370921070166</v>
+        <v>-0.038589318721242466</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.043311043834737752</v>
+        <v>-0.043061166389564247</v>
       </c>
       <c r="B2" s="0">
-        <v>0.043311043097144342</v>
+        <v>0.043061165312743011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.063935135820979636</v>
+        <v>0.06649506656870699</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.063935136522927552</v>
+        <v>-0.066495067661306292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.003973840320595814</v>
+        <v>-0.014596383123959179</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0039738410324035769</v>
+        <v>0.014596381960536024</v>
       </c>
     </row>
     <row r="5">
